--- a/data_year/zb/综合/法人单位数/分行业法人单位数.xlsx
+++ b/data_year/zb/综合/法人单位数/分行业法人单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>信息传输、计算机服务和软件业法人单位数</t>
+          <t>信息传输、软件和信息技术服务业法人单位数</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>公共管理和社会组织法人单位数</t>
+          <t>公共管理、社会保障和社会组织法人单位数</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>卫生、社会保障和社会福利业法人单位数</t>
+          <t>卫生和社会工作法人单位数</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>居民服务和其他服务业法人单位数</t>
+          <t>居民服务、修理和其他服务业法人单位数</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>电力、燃气及水的生产和供应业法人单位数</t>
+          <t>电力、热力、燃气及水生产和供应业法人单位数</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>科学研究、技术服务和地质勘查业法人单位数</t>
+          <t>科学研究和技术服务业法人单位数</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -543,1435 +543,815 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59711</v>
+        <v>195829</v>
       </c>
       <c r="C2" t="n">
-        <v>83014</v>
+        <v>164762</v>
       </c>
       <c r="D2" t="n">
-        <v>25425</v>
+        <v>191182</v>
       </c>
       <c r="E2" t="n">
-        <v>1146645</v>
+        <v>1382104</v>
       </c>
       <c r="F2" t="n">
-        <v>142140</v>
+        <v>242429</v>
       </c>
       <c r="G2" t="n">
-        <v>1243607</v>
+        <v>2098370</v>
       </c>
       <c r="H2" t="n">
-        <v>114388</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3796</v>
-      </c>
+        <v>205778</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>54366</v>
+        <v>158152</v>
       </c>
       <c r="K2" t="n">
-        <v>118240</v>
+        <v>302232</v>
       </c>
       <c r="L2" t="n">
-        <v>48363</v>
+        <v>284726</v>
       </c>
       <c r="M2" t="n">
-        <v>693108</v>
+        <v>1965118</v>
       </c>
       <c r="N2" t="n">
-        <v>218304</v>
+        <v>342408</v>
       </c>
       <c r="O2" t="n">
-        <v>41060</v>
+        <v>95633</v>
       </c>
       <c r="P2" t="n">
-        <v>30189</v>
+        <v>64794</v>
       </c>
       <c r="Q2" t="n">
-        <v>4366141</v>
+        <v>8754588</v>
       </c>
       <c r="R2" t="n">
-        <v>30841</v>
+        <v>64151</v>
       </c>
       <c r="S2" t="n">
-        <v>45003</v>
+        <v>256865</v>
       </c>
       <c r="T2" t="n">
-        <v>107229</v>
+        <v>590478</v>
       </c>
       <c r="U2" t="n">
-        <v>90484</v>
+        <v>104065</v>
       </c>
       <c r="V2" t="n">
-        <v>70228</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82162</v>
+        <v>219630</v>
       </c>
       <c r="C3" t="n">
-        <v>100768</v>
+        <v>172070</v>
       </c>
       <c r="D3" t="n">
-        <v>57420</v>
+        <v>208867</v>
       </c>
       <c r="E3" t="n">
-        <v>1254546</v>
+        <v>1387111</v>
       </c>
       <c r="F3" t="n">
-        <v>171526</v>
+        <v>321086</v>
       </c>
       <c r="G3" t="n">
-        <v>1220587</v>
+        <v>2240315</v>
       </c>
       <c r="H3" t="n">
-        <v>200360</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3381</v>
-      </c>
+        <v>205173</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>94655</v>
+        <v>175813</v>
       </c>
       <c r="K3" t="n">
-        <v>123187</v>
+        <v>346026</v>
       </c>
       <c r="L3" t="n">
-        <v>92417</v>
+        <v>323985</v>
       </c>
       <c r="M3" t="n">
-        <v>807454</v>
+        <v>2276295</v>
       </c>
       <c r="N3" t="n">
-        <v>307817</v>
+        <v>346390</v>
       </c>
       <c r="O3" t="n">
-        <v>57410</v>
+        <v>102775</v>
       </c>
       <c r="P3" t="n">
-        <v>51007</v>
+        <v>69186</v>
       </c>
       <c r="Q3" t="n">
-        <v>5107015</v>
+        <v>9593729</v>
       </c>
       <c r="R3" t="n">
-        <v>36982</v>
+        <v>66652</v>
       </c>
       <c r="S3" t="n">
-        <v>75666</v>
+        <v>283777</v>
       </c>
       <c r="T3" t="n">
-        <v>234265</v>
+        <v>687575</v>
       </c>
       <c r="U3" t="n">
-        <v>71409</v>
+        <v>105490</v>
       </c>
       <c r="V3" t="n">
-        <v>63996</v>
+        <v>55513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83489</v>
+        <v>249832</v>
       </c>
       <c r="C4" t="n">
-        <v>102244</v>
+        <v>186837</v>
       </c>
       <c r="D4" t="n">
-        <v>59368</v>
+        <v>245669</v>
       </c>
       <c r="E4" t="n">
-        <v>1250166</v>
+        <v>1393957</v>
       </c>
       <c r="F4" t="n">
-        <v>170953</v>
+        <v>440853</v>
       </c>
       <c r="G4" t="n">
-        <v>1239549</v>
+        <v>2380759</v>
       </c>
       <c r="H4" t="n">
-        <v>200761</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2294</v>
-      </c>
+        <v>206885</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>96244</v>
+        <v>196880</v>
       </c>
       <c r="K4" t="n">
-        <v>129062</v>
+        <v>391392</v>
       </c>
       <c r="L4" t="n">
-        <v>96795</v>
+        <v>356717</v>
       </c>
       <c r="M4" t="n">
-        <v>829029</v>
+        <v>2630690</v>
       </c>
       <c r="N4" t="n">
-        <v>308320</v>
+        <v>355072</v>
       </c>
       <c r="O4" t="n">
-        <v>57891</v>
+        <v>121126</v>
       </c>
       <c r="P4" t="n">
-        <v>51426</v>
+        <v>75981</v>
       </c>
       <c r="Q4" t="n">
-        <v>5170849</v>
+        <v>10616530</v>
       </c>
       <c r="R4" t="n">
-        <v>37136</v>
+        <v>69947</v>
       </c>
       <c r="S4" t="n">
-        <v>78356</v>
+        <v>324932</v>
       </c>
       <c r="T4" t="n">
-        <v>242109</v>
+        <v>813851</v>
       </c>
       <c r="U4" t="n">
-        <v>70851</v>
+        <v>107596</v>
       </c>
       <c r="V4" t="n">
-        <v>64806</v>
+        <v>67554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85991</v>
+        <v>262048</v>
       </c>
       <c r="C5" t="n">
-        <v>103537</v>
+        <v>199592</v>
       </c>
       <c r="D5" t="n">
-        <v>58307</v>
+        <v>226107</v>
       </c>
       <c r="E5" t="n">
-        <v>1243967</v>
+        <v>1520075</v>
       </c>
       <c r="F5" t="n">
-        <v>156033</v>
+        <v>594495</v>
       </c>
       <c r="G5" t="n">
-        <v>1298870</v>
+        <v>2252225</v>
       </c>
       <c r="H5" t="n">
-        <v>198879</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2144</v>
-      </c>
+        <v>249567</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>64391</v>
+        <v>190692</v>
       </c>
       <c r="K5" t="n">
-        <v>132059</v>
+        <v>347519</v>
       </c>
       <c r="L5" t="n">
-        <v>98943</v>
+        <v>343924</v>
       </c>
       <c r="M5" t="n">
-        <v>840241</v>
+        <v>2810531</v>
       </c>
       <c r="N5" t="n">
-        <v>304056</v>
+        <v>413908</v>
       </c>
       <c r="O5" t="n">
-        <v>77717</v>
+        <v>230544</v>
       </c>
       <c r="P5" t="n">
-        <v>47847</v>
+        <v>84803</v>
       </c>
       <c r="Q5" t="n">
-        <v>5214144</v>
+        <v>11258282</v>
       </c>
       <c r="R5" t="n">
-        <v>33570</v>
+        <v>70409</v>
       </c>
       <c r="S5" t="n">
-        <v>110685</v>
+        <v>455778</v>
       </c>
       <c r="T5" t="n">
-        <v>219567</v>
+        <v>916953</v>
       </c>
       <c r="U5" t="n">
-        <v>72538</v>
-      </c>
-      <c r="V5" t="n">
-        <v>64802</v>
-      </c>
+        <v>89112</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80570</v>
+        <v>323044</v>
       </c>
       <c r="C6" t="n">
-        <v>92874</v>
+        <v>235337</v>
       </c>
       <c r="D6" t="n">
-        <v>72917</v>
+        <v>289162</v>
       </c>
       <c r="E6" t="n">
-        <v>1244793</v>
+        <v>1596327</v>
       </c>
       <c r="F6" t="n">
-        <v>156033</v>
+        <v>951045</v>
       </c>
       <c r="G6" t="n">
-        <v>1328971</v>
+        <v>2616671</v>
       </c>
       <c r="H6" t="n">
-        <v>181989</v>
+        <v>265537</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>83607</v>
+        <v>242251</v>
       </c>
       <c r="K6" t="n">
-        <v>128196</v>
+        <v>464975</v>
       </c>
       <c r="L6" t="n">
-        <v>129198</v>
+        <v>419618</v>
       </c>
       <c r="M6" t="n">
-        <v>883654</v>
+        <v>3513338</v>
       </c>
       <c r="N6" t="n">
-        <v>299584</v>
+        <v>444038</v>
       </c>
       <c r="O6" t="n">
-        <v>64750</v>
+        <v>263384</v>
       </c>
       <c r="P6" t="n">
-        <v>44352</v>
+        <v>97522</v>
       </c>
       <c r="Q6" t="n">
-        <v>5323235</v>
+        <v>13701440</v>
       </c>
       <c r="R6" t="n">
-        <v>39832</v>
+        <v>79679</v>
       </c>
       <c r="S6" t="n">
-        <v>136569</v>
+        <v>544309</v>
       </c>
       <c r="T6" t="n">
-        <v>249196</v>
+        <v>1161947</v>
       </c>
       <c r="U6" t="n">
-        <v>82357</v>
+        <v>101673</v>
       </c>
       <c r="V6" t="n">
-        <v>23793</v>
+        <v>91583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91565</v>
+        <v>378705</v>
       </c>
       <c r="C7" t="n">
-        <v>101853</v>
+        <v>274283</v>
       </c>
       <c r="D7" t="n">
-        <v>85499</v>
+        <v>387842</v>
       </c>
       <c r="E7" t="n">
-        <v>1252597</v>
+        <v>1603708</v>
       </c>
       <c r="F7" t="n">
-        <v>68800</v>
+        <v>1204724</v>
       </c>
       <c r="G7" t="n">
-        <v>1451556</v>
+        <v>2801143</v>
       </c>
       <c r="H7" t="n">
-        <v>183760</v>
+        <v>271571</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>93947</v>
+        <v>298958</v>
       </c>
       <c r="K7" t="n">
-        <v>149471</v>
+        <v>574128</v>
       </c>
       <c r="L7" t="n">
-        <v>148059</v>
+        <v>466100</v>
       </c>
       <c r="M7" t="n">
-        <v>994953</v>
+        <v>4199026</v>
       </c>
       <c r="N7" t="n">
-        <v>305446</v>
+        <v>461451</v>
       </c>
       <c r="O7" t="n">
-        <v>69490</v>
+        <v>297274</v>
       </c>
       <c r="P7" t="n">
-        <v>46847</v>
+        <v>108069</v>
       </c>
       <c r="Q7" t="n">
-        <v>5647823</v>
+        <v>15729199</v>
       </c>
       <c r="R7" t="n">
-        <v>43148</v>
+        <v>87486</v>
       </c>
       <c r="S7" t="n">
-        <v>153076</v>
+        <v>661022</v>
       </c>
       <c r="T7" t="n">
-        <v>291498</v>
+        <v>1440572</v>
       </c>
       <c r="U7" t="n">
-        <v>89430</v>
+        <v>103426</v>
       </c>
       <c r="V7" t="n">
-        <v>26828</v>
+        <v>109711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104635</v>
+        <v>443325</v>
       </c>
       <c r="C8" t="n">
-        <v>109892</v>
+        <v>317619</v>
       </c>
       <c r="D8" t="n">
-        <v>100614</v>
+        <v>507674</v>
       </c>
       <c r="E8" t="n">
-        <v>1252706</v>
+        <v>1599879</v>
       </c>
       <c r="F8" t="n">
-        <v>78205</v>
+        <v>1481473</v>
       </c>
       <c r="G8" t="n">
-        <v>1579406</v>
+        <v>3019269</v>
       </c>
       <c r="H8" t="n">
-        <v>185014</v>
+        <v>275554</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>102228</v>
+        <v>359932</v>
       </c>
       <c r="K8" t="n">
-        <v>170180</v>
+        <v>754512</v>
       </c>
       <c r="L8" t="n">
-        <v>165865</v>
+        <v>533557</v>
       </c>
       <c r="M8" t="n">
-        <v>1122489</v>
+        <v>5041698</v>
       </c>
       <c r="N8" t="n">
-        <v>308760</v>
+        <v>486026</v>
       </c>
       <c r="O8" t="n">
-        <v>72873</v>
+        <v>341182</v>
       </c>
       <c r="P8" t="n">
-        <v>48811</v>
+        <v>122367</v>
       </c>
       <c r="Q8" t="n">
-        <v>6068912</v>
+        <v>18191382</v>
       </c>
       <c r="R8" t="n">
-        <v>45922</v>
+        <v>99469</v>
       </c>
       <c r="S8" t="n">
-        <v>166240</v>
+        <v>813251</v>
       </c>
       <c r="T8" t="n">
-        <v>331904</v>
+        <v>1768005</v>
       </c>
       <c r="U8" t="n">
-        <v>93967</v>
+        <v>104074</v>
       </c>
       <c r="V8" t="n">
-        <v>29201</v>
+        <v>122516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117228</v>
+        <v>540994</v>
       </c>
       <c r="C9" t="n">
-        <v>118173</v>
+        <v>378974</v>
       </c>
       <c r="D9" t="n">
-        <v>115101</v>
+        <v>719150</v>
       </c>
       <c r="E9" t="n">
-        <v>1257950</v>
+        <v>1590535</v>
       </c>
       <c r="F9" t="n">
-        <v>98546</v>
+        <v>1926771</v>
       </c>
       <c r="G9" t="n">
-        <v>1702455</v>
+        <v>3483617</v>
       </c>
       <c r="H9" t="n">
-        <v>187376</v>
+        <v>286858</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>110525</v>
+        <v>420667</v>
       </c>
       <c r="K9" t="n">
-        <v>190517</v>
+        <v>1045232</v>
       </c>
       <c r="L9" t="n">
-        <v>187444</v>
+        <v>642893</v>
       </c>
       <c r="M9" t="n">
-        <v>1246042</v>
+        <v>6252424</v>
       </c>
       <c r="N9" t="n">
-        <v>312339</v>
+        <v>517739</v>
       </c>
       <c r="O9" t="n">
-        <v>76430</v>
+        <v>414973</v>
       </c>
       <c r="P9" t="n">
-        <v>50953</v>
+        <v>146295</v>
       </c>
       <c r="Q9" t="n">
-        <v>6495064</v>
+        <v>22009092</v>
       </c>
       <c r="R9" t="n">
-        <v>49052</v>
+        <v>120736</v>
       </c>
       <c r="S9" t="n">
-        <v>176677</v>
+        <v>1035170</v>
       </c>
       <c r="T9" t="n">
-        <v>368763</v>
+        <v>2242096</v>
       </c>
       <c r="U9" t="n">
-        <v>97678</v>
+        <v>108900</v>
       </c>
       <c r="V9" t="n">
-        <v>31815</v>
+        <v>135068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157589</v>
+        <v>577233</v>
       </c>
       <c r="C10" t="n">
-        <v>145297</v>
+        <v>431323</v>
       </c>
       <c r="D10" t="n">
-        <v>153290</v>
+        <v>919879</v>
       </c>
       <c r="E10" t="n">
-        <v>1363857</v>
+        <v>1597010</v>
       </c>
       <c r="F10" t="n">
-        <v>2023</v>
+        <v>1926591</v>
       </c>
       <c r="G10" t="n">
-        <v>1818370</v>
+        <v>3269606</v>
       </c>
       <c r="H10" t="n">
-        <v>206480</v>
+        <v>272504</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>120467</v>
+        <v>497292</v>
       </c>
       <c r="K10" t="n">
-        <v>226768</v>
+        <v>1218463</v>
       </c>
       <c r="L10" t="n">
-        <v>214391</v>
+        <v>744924</v>
       </c>
       <c r="M10" t="n">
-        <v>1403141</v>
+        <v>6499161</v>
       </c>
       <c r="N10" t="n">
-        <v>335065</v>
+        <v>665883</v>
       </c>
       <c r="O10" t="n">
-        <v>81878</v>
+        <v>566593</v>
       </c>
       <c r="P10" t="n">
-        <v>57553</v>
+        <v>148860</v>
       </c>
       <c r="Q10" t="n">
-        <v>7098765</v>
+        <v>23481046</v>
       </c>
       <c r="R10" t="n">
-        <v>57923</v>
+        <v>110714</v>
       </c>
       <c r="S10" t="n">
-        <v>201689</v>
+        <v>1275579</v>
       </c>
       <c r="T10" t="n">
-        <v>427001</v>
+        <v>2551306</v>
       </c>
       <c r="U10" t="n">
-        <v>97315</v>
+        <v>70191</v>
       </c>
       <c r="V10" t="n">
-        <v>28668</v>
+        <v>137934</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175914</v>
+        <v>629631</v>
       </c>
       <c r="C11" t="n">
-        <v>154895</v>
+        <v>449277</v>
       </c>
       <c r="D11" t="n">
-        <v>176326</v>
+        <v>1047408</v>
       </c>
       <c r="E11" t="n">
-        <v>1383842</v>
+        <v>1593030</v>
       </c>
       <c r="F11" t="n">
-        <v>184764</v>
+        <v>1879887</v>
       </c>
       <c r="G11" t="n">
-        <v>1959254</v>
+        <v>3463346</v>
       </c>
       <c r="H11" t="n">
-        <v>209016</v>
+        <v>279155</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>141936</v>
+        <v>522903</v>
       </c>
       <c r="K11" t="n">
-        <v>261694</v>
+        <v>1458539</v>
       </c>
       <c r="L11" t="n">
-        <v>244043</v>
+        <v>811663</v>
       </c>
       <c r="M11" t="n">
-        <v>1670315</v>
+        <v>7155907</v>
       </c>
       <c r="N11" t="n">
-        <v>342003</v>
+        <v>698893</v>
       </c>
       <c r="O11" t="n">
-        <v>90891</v>
+        <v>585224</v>
       </c>
       <c r="P11" t="n">
-        <v>61740</v>
+        <v>172856</v>
       </c>
       <c r="Q11" t="n">
-        <v>8003868</v>
+        <v>25280211</v>
       </c>
       <c r="R11" t="n">
-        <v>62038</v>
+        <v>113649</v>
       </c>
       <c r="S11" t="n">
-        <v>233221</v>
+        <v>1390741</v>
       </c>
       <c r="T11" t="n">
-        <v>511666</v>
+        <v>2825375</v>
       </c>
       <c r="U11" t="n">
-        <v>103403</v>
+        <v>70983</v>
       </c>
       <c r="V11" t="n">
-        <v>36907</v>
+        <v>131744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195829</v>
+        <v>748046</v>
       </c>
       <c r="C12" t="n">
-        <v>164762</v>
+        <v>514980</v>
       </c>
       <c r="D12" t="n">
-        <v>191182</v>
+        <v>1285534</v>
       </c>
       <c r="E12" t="n">
-        <v>1382104</v>
+        <v>1600853</v>
       </c>
       <c r="F12" t="n">
-        <v>242429</v>
+        <v>2090924</v>
       </c>
       <c r="G12" t="n">
-        <v>2098370</v>
+        <v>3846747</v>
       </c>
       <c r="H12" t="n">
-        <v>205778</v>
+        <v>299142</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>158152</v>
+        <v>598808</v>
       </c>
       <c r="K12" t="n">
-        <v>302232</v>
+        <v>1901819</v>
       </c>
       <c r="L12" t="n">
-        <v>284726</v>
+        <v>933969</v>
       </c>
       <c r="M12" t="n">
-        <v>1965118</v>
+        <v>8415106</v>
       </c>
       <c r="N12" t="n">
-        <v>342408</v>
+        <v>769578</v>
       </c>
       <c r="O12" t="n">
-        <v>95633</v>
+        <v>686805</v>
       </c>
       <c r="P12" t="n">
-        <v>64794</v>
+        <v>216714</v>
       </c>
       <c r="Q12" t="n">
-        <v>8754588</v>
+        <v>29389255</v>
       </c>
       <c r="R12" t="n">
-        <v>64151</v>
+        <v>123729</v>
       </c>
       <c r="S12" t="n">
-        <v>256865</v>
+        <v>1738335</v>
       </c>
       <c r="T12" t="n">
-        <v>590478</v>
+        <v>3394995</v>
       </c>
       <c r="U12" t="n">
-        <v>104065</v>
+        <v>80683</v>
       </c>
       <c r="V12" t="n">
-        <v>45512</v>
+        <v>142488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>219630</v>
+        <v>858447</v>
       </c>
       <c r="C13" t="n">
-        <v>172070</v>
+        <v>583028</v>
       </c>
       <c r="D13" t="n">
-        <v>208867</v>
+        <v>1488072</v>
       </c>
       <c r="E13" t="n">
-        <v>1387111</v>
+        <v>1528922</v>
       </c>
       <c r="F13" t="n">
-        <v>321086</v>
+        <v>2189201</v>
       </c>
       <c r="G13" t="n">
-        <v>2240315</v>
+        <v>4167767</v>
       </c>
       <c r="H13" t="n">
-        <v>205173</v>
+        <v>296031</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>175813</v>
+        <v>667130</v>
       </c>
       <c r="K13" t="n">
-        <v>346026</v>
+        <v>2367010</v>
       </c>
       <c r="L13" t="n">
-        <v>323985</v>
+        <v>1038260</v>
       </c>
       <c r="M13" t="n">
-        <v>2276295</v>
+        <v>9575504</v>
       </c>
       <c r="N13" t="n">
-        <v>346390</v>
+        <v>793247</v>
       </c>
       <c r="O13" t="n">
-        <v>102775</v>
+        <v>766821</v>
       </c>
       <c r="P13" t="n">
-        <v>69186</v>
+        <v>250799</v>
       </c>
       <c r="Q13" t="n">
-        <v>9593729</v>
+        <v>32866972</v>
       </c>
       <c r="R13" t="n">
-        <v>66652</v>
+        <v>133875</v>
       </c>
       <c r="S13" t="n">
-        <v>283777</v>
+        <v>2053759</v>
       </c>
       <c r="T13" t="n">
-        <v>687575</v>
+        <v>3876456</v>
       </c>
       <c r="U13" t="n">
-        <v>105490</v>
+        <v>82830</v>
       </c>
       <c r="V13" t="n">
-        <v>55513</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>249832</v>
-      </c>
-      <c r="C14" t="n">
-        <v>186837</v>
-      </c>
-      <c r="D14" t="n">
-        <v>245669</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1393957</v>
-      </c>
-      <c r="F14" t="n">
-        <v>440853</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2380759</v>
-      </c>
-      <c r="H14" t="n">
-        <v>206885</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>196880</v>
-      </c>
-      <c r="K14" t="n">
-        <v>391392</v>
-      </c>
-      <c r="L14" t="n">
-        <v>356717</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2630690</v>
-      </c>
-      <c r="N14" t="n">
-        <v>355072</v>
-      </c>
-      <c r="O14" t="n">
-        <v>121126</v>
-      </c>
-      <c r="P14" t="n">
-        <v>75981</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10616530</v>
-      </c>
-      <c r="R14" t="n">
-        <v>69947</v>
-      </c>
-      <c r="S14" t="n">
-        <v>324932</v>
-      </c>
-      <c r="T14" t="n">
-        <v>813851</v>
-      </c>
-      <c r="U14" t="n">
-        <v>107596</v>
-      </c>
-      <c r="V14" t="n">
-        <v>67554</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>262048</v>
-      </c>
-      <c r="C15" t="n">
-        <v>199592</v>
-      </c>
-      <c r="D15" t="n">
-        <v>226107</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1520075</v>
-      </c>
-      <c r="F15" t="n">
-        <v>161824</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2252225</v>
-      </c>
-      <c r="H15" t="n">
-        <v>249567</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>190692</v>
-      </c>
-      <c r="K15" t="n">
-        <v>347519</v>
-      </c>
-      <c r="L15" t="n">
-        <v>343924</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2810531</v>
-      </c>
-      <c r="N15" t="n">
-        <v>413908</v>
-      </c>
-      <c r="O15" t="n">
-        <v>230544</v>
-      </c>
-      <c r="P15" t="n">
-        <v>84803</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>10825611</v>
-      </c>
-      <c r="R15" t="n">
-        <v>70409</v>
-      </c>
-      <c r="S15" t="n">
-        <v>455778</v>
-      </c>
-      <c r="T15" t="n">
-        <v>916953</v>
-      </c>
-      <c r="U15" t="n">
-        <v>89112</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>323044</v>
-      </c>
-      <c r="C16" t="n">
-        <v>235337</v>
-      </c>
-      <c r="D16" t="n">
-        <v>289162</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1596327</v>
-      </c>
-      <c r="F16" t="n">
-        <v>951045</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2616671</v>
-      </c>
-      <c r="H16" t="n">
-        <v>265537</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>242251</v>
-      </c>
-      <c r="K16" t="n">
-        <v>464975</v>
-      </c>
-      <c r="L16" t="n">
-        <v>419618</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3513338</v>
-      </c>
-      <c r="N16" t="n">
-        <v>444038</v>
-      </c>
-      <c r="O16" t="n">
-        <v>263384</v>
-      </c>
-      <c r="P16" t="n">
-        <v>97522</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>13701440</v>
-      </c>
-      <c r="R16" t="n">
-        <v>79679</v>
-      </c>
-      <c r="S16" t="n">
-        <v>544309</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1161947</v>
-      </c>
-      <c r="U16" t="n">
-        <v>101673</v>
-      </c>
-      <c r="V16" t="n">
-        <v>91583</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>378705</v>
-      </c>
-      <c r="C17" t="n">
-        <v>274283</v>
-      </c>
-      <c r="D17" t="n">
-        <v>387842</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1603708</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1204724</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2801143</v>
-      </c>
-      <c r="H17" t="n">
-        <v>271571</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>298958</v>
-      </c>
-      <c r="K17" t="n">
-        <v>574128</v>
-      </c>
-      <c r="L17" t="n">
-        <v>466100</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4199026</v>
-      </c>
-      <c r="N17" t="n">
-        <v>461451</v>
-      </c>
-      <c r="O17" t="n">
-        <v>297274</v>
-      </c>
-      <c r="P17" t="n">
-        <v>108069</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>15729199</v>
-      </c>
-      <c r="R17" t="n">
-        <v>87486</v>
-      </c>
-      <c r="S17" t="n">
-        <v>661022</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1440572</v>
-      </c>
-      <c r="U17" t="n">
-        <v>103426</v>
-      </c>
-      <c r="V17" t="n">
-        <v>109711</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>443325</v>
-      </c>
-      <c r="C18" t="n">
-        <v>317619</v>
-      </c>
-      <c r="D18" t="n">
-        <v>507674</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1599879</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1481473</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3019269</v>
-      </c>
-      <c r="H18" t="n">
-        <v>275554</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>359932</v>
-      </c>
-      <c r="K18" t="n">
-        <v>754512</v>
-      </c>
-      <c r="L18" t="n">
-        <v>533557</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5041698</v>
-      </c>
-      <c r="N18" t="n">
-        <v>486026</v>
-      </c>
-      <c r="O18" t="n">
-        <v>341182</v>
-      </c>
-      <c r="P18" t="n">
-        <v>122367</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>18191382</v>
-      </c>
-      <c r="R18" t="n">
-        <v>99469</v>
-      </c>
-      <c r="S18" t="n">
-        <v>813251</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1768005</v>
-      </c>
-      <c r="U18" t="n">
-        <v>104074</v>
-      </c>
-      <c r="V18" t="n">
-        <v>122516</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>540994</v>
-      </c>
-      <c r="C19" t="n">
-        <v>378974</v>
-      </c>
-      <c r="D19" t="n">
-        <v>719150</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1590535</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1926771</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3483617</v>
-      </c>
-      <c r="H19" t="n">
-        <v>286858</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>420667</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1045232</v>
-      </c>
-      <c r="L19" t="n">
-        <v>642893</v>
-      </c>
-      <c r="M19" t="n">
-        <v>6252424</v>
-      </c>
-      <c r="N19" t="n">
-        <v>517739</v>
-      </c>
-      <c r="O19" t="n">
-        <v>414973</v>
-      </c>
-      <c r="P19" t="n">
-        <v>146295</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>22009092</v>
-      </c>
-      <c r="R19" t="n">
-        <v>120736</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1035170</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2242096</v>
-      </c>
-      <c r="U19" t="n">
-        <v>108900</v>
-      </c>
-      <c r="V19" t="n">
-        <v>135068</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>577233</v>
-      </c>
-      <c r="C20" t="n">
-        <v>431323</v>
-      </c>
-      <c r="D20" t="n">
-        <v>919879</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1597010</v>
-      </c>
-      <c r="F20" t="n">
-        <v>232818</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3269606</v>
-      </c>
-      <c r="H20" t="n">
-        <v>272504</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>497292</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1218463</v>
-      </c>
-      <c r="L20" t="n">
-        <v>744924</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6499161</v>
-      </c>
-      <c r="N20" t="n">
-        <v>665883</v>
-      </c>
-      <c r="O20" t="n">
-        <v>566593</v>
-      </c>
-      <c r="P20" t="n">
-        <v>148860</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>21787273</v>
-      </c>
-      <c r="R20" t="n">
-        <v>110714</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1275579</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2551306</v>
-      </c>
-      <c r="U20" t="n">
-        <v>70191</v>
-      </c>
-      <c r="V20" t="n">
-        <v>137934</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>629631</v>
-      </c>
-      <c r="C21" t="n">
-        <v>449277</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1047408</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1593030</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1879887</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3463346</v>
-      </c>
-      <c r="H21" t="n">
-        <v>279155</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>522903</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1458539</v>
-      </c>
-      <c r="L21" t="n">
-        <v>811663</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7155907</v>
-      </c>
-      <c r="N21" t="n">
-        <v>698893</v>
-      </c>
-      <c r="O21" t="n">
-        <v>585224</v>
-      </c>
-      <c r="P21" t="n">
-        <v>172856</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>25280211</v>
-      </c>
-      <c r="R21" t="n">
-        <v>113649</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1390741</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2825375</v>
-      </c>
-      <c r="U21" t="n">
-        <v>70983</v>
-      </c>
-      <c r="V21" t="n">
-        <v>131744</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>748046</v>
-      </c>
-      <c r="C22" t="n">
-        <v>514980</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1285534</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1600853</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2090924</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3846747</v>
-      </c>
-      <c r="H22" t="n">
-        <v>299142</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>598808</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1901819</v>
-      </c>
-      <c r="L22" t="n">
-        <v>933969</v>
-      </c>
-      <c r="M22" t="n">
-        <v>8415106</v>
-      </c>
-      <c r="N22" t="n">
-        <v>769578</v>
-      </c>
-      <c r="O22" t="n">
-        <v>686805</v>
-      </c>
-      <c r="P22" t="n">
-        <v>216714</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>29389255</v>
-      </c>
-      <c r="R22" t="n">
-        <v>123729</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1738335</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3394995</v>
-      </c>
-      <c r="U22" t="n">
-        <v>80683</v>
-      </c>
-      <c r="V22" t="n">
-        <v>142488</v>
+        <v>149813</v>
       </c>
     </row>
   </sheetData>
